--- a/doc/data_simulation.xlsx
+++ b/doc/data_simulation.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\DEV\MNNoteWebApp_forked\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\NoteWebApp\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE76CCE-CEB8-47D1-AF75-B708869B31A8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A28EFB-64B2-455F-B215-0CBCFBF7613F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="31995" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="31992" windowHeight="15948" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179020"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="69">
   <si>
     <t>NOTE</t>
   </si>
@@ -89,6 +90,190 @@
   </si>
   <si>
     <t>NOTE_TAG_MAP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USERID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USERNAME</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMAIL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>REGISTEREDDATE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISDELETED</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>abc1234</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>abcd</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>나아날@gdc.com</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>en-US</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGINID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>text(15)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>김민석</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>text(32)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>8~12</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>text(20)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte로환산: 영어 1바이트 한글 3바이트</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>text(40)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>text(5)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>number(1)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOCALE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETEDDATE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETEDBY</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>user테이블의 userid컬럼 참조</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATEDDATE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATEDBY</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MODIFIEDDATE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MODIFIEDBY</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 테이블에 있어야하는 7개의 컬럼 : audit(감사)기록용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LASTLOGINDATE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISLOCKED</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOCKEDDATE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUITDATE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISQUIT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>nullable</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAILEDCOUNT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1번이라도 성공하면 초기화</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3번실패시 잠김(lock)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASSWORDEXPIRYDATE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>임시비번:일주일/비번:90일</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅊ</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -96,7 +281,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +327,21 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -198,10 +401,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -234,9 +438,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -550,32 +764,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.75" customWidth="1"/>
-    <col min="2" max="2" width="8.25" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.25" style="12" customWidth="1"/>
-    <col min="13" max="13" width="6.875" style="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="5.69921875" customWidth="1"/>
+    <col min="2" max="2" width="8.19921875" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.19921875" style="12" customWidth="1"/>
+    <col min="13" max="13" width="6.8984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.09765625" customWidth="1"/>
     <col min="15" max="15" width="2" style="12" customWidth="1"/>
     <col min="16" max="16" width="11.5" style="16" customWidth="1"/>
-    <col min="17" max="17" width="8.875" style="16" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.8984375" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" s="8" customFormat="1" ht="26.25" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:17" s="8" customFormat="1" ht="25.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
@@ -589,7 +803,7 @@
       </c>
       <c r="Q1" s="13"/>
     </row>
-    <row r="2" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
@@ -605,7 +819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B3" s="14"/>
       <c r="G3" s="5" t="s">
         <v>3</v>
@@ -620,7 +834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:17" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B4" s="15" t="s">
         <v>4</v>
       </c>
@@ -666,7 +880,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B5" s="16">
         <v>3</v>
       </c>
@@ -705,7 +919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B6" s="16">
         <v>4</v>
       </c>
@@ -744,7 +958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B7" s="16">
         <v>5</v>
       </c>
@@ -783,7 +997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B8" s="16">
         <v>6</v>
       </c>
@@ -810,7 +1024,7 @@
       </c>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B9" s="16">
         <v>7</v>
       </c>
@@ -837,7 +1051,7 @@
       </c>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B10" s="16">
         <v>8</v>
       </c>
@@ -864,7 +1078,7 @@
       </c>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B11" s="16">
         <v>9</v>
       </c>
@@ -891,7 +1105,7 @@
       </c>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B12" s="16">
         <v>10</v>
       </c>
@@ -918,7 +1132,7 @@
       </c>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B13" s="16">
         <v>11</v>
       </c>
@@ -945,7 +1159,7 @@
       </c>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B14" s="16">
         <v>12</v>
       </c>
@@ -972,7 +1186,7 @@
       </c>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B15" s="16">
         <v>13</v>
       </c>
@@ -999,7 +1213,7 @@
       </c>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B16" s="16">
         <v>14</v>
       </c>
@@ -1026,7 +1240,7 @@
       </c>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B17" s="16">
         <v>15</v>
       </c>
@@ -1053,7 +1267,7 @@
       </c>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B18" s="16">
         <v>16</v>
       </c>
@@ -1084,4 +1298,538 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19CCF7AF-E6FE-4329-B02C-F2E28CB61015}">
+  <dimension ref="A1:V21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.19921875" customWidth="1"/>
+    <col min="5" max="5" width="22.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11" customWidth="1"/>
+    <col min="13" max="13" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="16.296875" customWidth="1"/>
+    <col min="19" max="19" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="13.296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="25.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" s="8"/>
+      <c r="R1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="P2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A3" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A4" s="14"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="J5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" s="14"/>
+      <c r="L5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A7" s="16">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="1">
+        <v>43378</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="19">
+        <v>2</v>
+      </c>
+      <c r="I7" s="19">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7" s="19">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M7" s="1">
+        <v>43374</v>
+      </c>
+      <c r="N7" s="1">
+        <v>43374</v>
+      </c>
+      <c r="O7" s="20">
+        <v>43374</v>
+      </c>
+      <c r="P7" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="20">
+        <v>43374</v>
+      </c>
+      <c r="R7" s="21">
+        <v>1</v>
+      </c>
+      <c r="S7" s="22">
+        <v>0</v>
+      </c>
+      <c r="T7" s="20">
+        <v>43374</v>
+      </c>
+      <c r="U7" s="23">
+        <v>1</v>
+      </c>
+      <c r="V7" s="22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A8" s="16"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A9" s="16"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A10" s="16"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A11" s="16"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A12" s="16"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A13" s="16"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A14" s="16"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A15" s="16"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A16" s="16"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A17" s="16"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A18" s="16"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A19" s="16"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A20" s="16"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A21" s="16"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F7" r:id="rId1" xr:uid="{7B9E8843-9DE1-47F4-B158-4AE259658654}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>